--- a/Team-Data/2014-15/12-16-2014-15.xlsx
+++ b/Team-Data/2014-15/12-16-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,19 +811,19 @@
         <v>5.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF2" t="n">
         <v>7</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -774,10 +841,10 @@
         <v>8</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP2" t="n">
         <v>19</v>
@@ -789,7 +856,7 @@
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT2" t="n">
         <v>27</v>
@@ -813,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -932,7 +999,7 @@
         <v>22</v>
       </c>
       <c r="AF3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG3" t="n">
         <v>22</v>
@@ -947,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL3" t="n">
         <v>14</v>
@@ -974,13 +1041,13 @@
         <v>8</v>
       </c>
       <c r="AT3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW3" t="n">
         <v>9</v>
@@ -989,10 +1056,10 @@
         <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -1030,91 +1097,91 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>0.435</v>
+        <v>0.455</v>
       </c>
       <c r="H4" t="n">
         <v>48.9</v>
       </c>
       <c r="I4" t="n">
-        <v>36.2</v>
+        <v>36.5</v>
       </c>
       <c r="J4" t="n">
-        <v>81.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.443</v>
+        <v>0.446</v>
       </c>
       <c r="L4" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="M4" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O4" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="P4" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="R4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S4" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="T4" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="U4" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="W4" t="n">
         <v>7</v>
       </c>
-      <c r="M4" t="n">
+      <c r="X4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Z4" t="n">
         <v>20.7</v>
       </c>
-      <c r="N4" t="n">
-        <v>0.337</v>
-      </c>
-      <c r="O4" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.762</v>
-      </c>
-      <c r="R4" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="V4" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="W4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="X4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>20.9</v>
-      </c>
       <c r="AA4" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2</v>
+        <v>-1.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
         <v>19</v>
@@ -1123,10 +1190,10 @@
         <v>2</v>
       </c>
       <c r="AI4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
         <v>21</v>
@@ -1135,19 +1202,19 @@
         <v>20</v>
       </c>
       <c r="AM4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN4" t="n">
         <v>19</v>
       </c>
-      <c r="AN4" t="n">
-        <v>20</v>
-      </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AQ4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR4" t="n">
         <v>23</v>
@@ -1156,13 +1223,13 @@
         <v>10</v>
       </c>
       <c r="AT4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW4" t="n">
         <v>20</v>
@@ -1171,16 +1238,16 @@
         <v>23</v>
       </c>
       <c r="AY4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA4" t="n">
         <v>22</v>
       </c>
       <c r="BB4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC4" t="n">
         <v>19</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-7.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
         <v>25</v>
@@ -1305,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ5" t="n">
         <v>9</v>
@@ -1326,10 +1393,10 @@
         <v>25</v>
       </c>
       <c r="AP5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR5" t="n">
         <v>26</v>
@@ -1338,10 +1405,10 @@
         <v>13</v>
       </c>
       <c r="AT5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1359,13 +1426,13 @@
         <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BC5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>3.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
@@ -1484,13 +1551,13 @@
         <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
         <v>17</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
         <v>16</v>
@@ -1511,16 +1578,16 @@
         <v>3</v>
       </c>
       <c r="AQ6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR6" t="n">
         <v>15</v>
       </c>
       <c r="AS6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU6" t="n">
         <v>12</v>
@@ -1532,16 +1599,16 @@
         <v>28</v>
       </c>
       <c r="AX6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ6" t="n">
         <v>9</v>
       </c>
       <c r="BA6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
@@ -1672,10 +1739,10 @@
         <v>14</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL7" t="n">
         <v>12</v>
@@ -1687,7 +1754,7 @@
         <v>13</v>
       </c>
       <c r="AO7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
         <v>6</v>
@@ -1699,7 +1766,7 @@
         <v>18</v>
       </c>
       <c r="AS7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT7" t="n">
         <v>19</v>
@@ -1717,19 +1784,19 @@
         <v>20</v>
       </c>
       <c r="AY7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ7" t="n">
         <v>1</v>
       </c>
       <c r="BA7" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB7" t="n">
         <v>7</v>
       </c>
-      <c r="BB7" t="n">
-        <v>8</v>
-      </c>
       <c r="BC7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -1761,40 +1828,40 @@
         <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="H8" t="n">
         <v>48.6</v>
       </c>
       <c r="I8" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="J8" t="n">
-        <v>86.5</v>
+        <v>86.3</v>
       </c>
       <c r="K8" t="n">
         <v>0.479</v>
       </c>
       <c r="L8" t="n">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="M8" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.35</v>
+        <v>0.346</v>
       </c>
       <c r="O8" t="n">
-        <v>17.6</v>
+        <v>17.9</v>
       </c>
       <c r="P8" t="n">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
       <c r="Q8" t="n">
         <v>0.767</v>
@@ -1803,16 +1870,16 @@
         <v>11.4</v>
       </c>
       <c r="S8" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>41.9</v>
       </c>
       <c r="U8" t="n">
-        <v>23.7</v>
+        <v>23.2</v>
       </c>
       <c r="V8" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="W8" t="n">
         <v>7.8</v>
@@ -1821,34 +1888,34 @@
         <v>5.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>110.2</v>
+        <v>110</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="AD8" t="n">
         <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
         <v>1</v>
@@ -1857,40 +1924,40 @@
         <v>4</v>
       </c>
       <c r="AK8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP8" t="n">
         <v>16</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>17</v>
       </c>
       <c r="AQ8" t="n">
         <v>13</v>
       </c>
       <c r="AR8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AS8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW8" t="n">
         <v>12</v>
@@ -1902,16 +1969,16 @@
         <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB8" t="n">
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -2018,19 +2085,19 @@
         <v>-2</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
         <v>20</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
@@ -2039,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
         <v>9</v>
@@ -2054,22 +2121,22 @@
         <v>8</v>
       </c>
       <c r="AP9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR9" t="n">
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV9" t="n">
         <v>14</v>
@@ -2087,10 +2154,10 @@
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BC9" t="n">
         <v>20</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2279,7 @@
         <v>28</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>28</v>
@@ -2233,10 +2300,10 @@
         <v>25</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
@@ -2245,7 +2312,7 @@
         <v>2</v>
       </c>
       <c r="AS10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT10" t="n">
         <v>8</v>
@@ -2263,7 +2330,7 @@
         <v>19</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ10" t="n">
         <v>8</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" t="n">
         <v>21</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0.875</v>
+        <v>0.913</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
@@ -2322,40 +2389,40 @@
         <v>40.3</v>
       </c>
       <c r="J11" t="n">
-        <v>84.3</v>
+        <v>83.8</v>
       </c>
       <c r="K11" t="n">
-        <v>0.478</v>
+        <v>0.482</v>
       </c>
       <c r="L11" t="n">
         <v>9.5</v>
       </c>
       <c r="M11" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.371</v>
+        <v>0.376</v>
       </c>
       <c r="O11" t="n">
-        <v>17.1</v>
+        <v>17.4</v>
       </c>
       <c r="P11" t="n">
-        <v>21.8</v>
+        <v>22.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.784</v>
+        <v>0.781</v>
       </c>
       <c r="R11" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S11" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="T11" t="n">
-        <v>45.8</v>
+        <v>45.7</v>
       </c>
       <c r="U11" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="V11" t="n">
         <v>16.3</v>
@@ -2364,25 +2431,25 @@
         <v>8.5</v>
       </c>
       <c r="X11" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="Y11" t="n">
         <v>3.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>107.2</v>
+        <v>107.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>10.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2394,31 +2461,31 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
         <v>3</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM11" t="n">
         <v>5</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP11" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
         <v>6</v>
@@ -2430,13 +2497,13 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
         <v>4</v>
       </c>
       <c r="AV11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW11" t="n">
         <v>7</v>
@@ -2448,13 +2515,13 @@
         <v>4</v>
       </c>
       <c r="AZ11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA11" t="n">
         <v>25</v>
       </c>
       <c r="BB11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" t="n">
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>0.773</v>
+        <v>0.783</v>
       </c>
       <c r="H12" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="J12" t="n">
-        <v>81.8</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>0.427</v>
@@ -2513,61 +2580,61 @@
         <v>11.9</v>
       </c>
       <c r="M12" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O12" t="n">
-        <v>17.5</v>
+        <v>18.2</v>
       </c>
       <c r="P12" t="n">
-        <v>24.8</v>
+        <v>25.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.706</v>
+        <v>0.704</v>
       </c>
       <c r="R12" t="n">
         <v>12.5</v>
       </c>
       <c r="S12" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T12" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U12" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="V12" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="W12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="X12" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.9</v>
+        <v>21.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>99.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
         <v>3</v>
@@ -2582,7 +2649,7 @@
         <v>27</v>
       </c>
       <c r="AJ12" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AK12" t="n">
         <v>27</v>
@@ -2594,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2609,13 +2676,13 @@
         <v>3</v>
       </c>
       <c r="AS12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AU12" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2627,19 +2694,19 @@
         <v>10</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
         <v>18</v>
       </c>
       <c r="BC12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -2752,19 +2819,19 @@
         <v>22</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
@@ -2773,10 +2840,10 @@
         <v>18</v>
       </c>
       <c r="AM13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO13" t="n">
         <v>28</v>
@@ -2785,19 +2852,19 @@
         <v>27</v>
       </c>
       <c r="AQ13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT13" t="n">
         <v>2</v>
       </c>
       <c r="AU13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AV13" t="n">
         <v>15</v>
@@ -2806,7 +2873,7 @@
         <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY13" t="n">
         <v>19</v>
@@ -2818,7 +2885,7 @@
         <v>16</v>
       </c>
       <c r="BB13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC13" t="n">
         <v>21</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -2928,28 +2995,28 @@
         <v>6.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>7</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ14" t="n">
         <v>25</v>
       </c>
       <c r="AK14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL14" t="n">
         <v>2</v>
@@ -2964,7 +3031,7 @@
         <v>9</v>
       </c>
       <c r="AP14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ14" t="n">
         <v>11</v>
@@ -3003,7 +3070,7 @@
         <v>4</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -3032,85 +3099,85 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G15" t="n">
-        <v>0.333</v>
+        <v>0.32</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>38.3</v>
+        <v>37.9</v>
       </c>
       <c r="J15" t="n">
-        <v>87.40000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.439</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M15" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.338</v>
+        <v>0.337</v>
       </c>
       <c r="O15" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="P15" t="n">
-        <v>26.1</v>
+        <v>26.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.748</v>
+        <v>0.75</v>
       </c>
       <c r="R15" t="n">
         <v>12.1</v>
       </c>
       <c r="S15" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="T15" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="U15" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="V15" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="W15" t="n">
         <v>7.6</v>
       </c>
       <c r="X15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.7</v>
+        <v>102.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.9</v>
+        <v>-7.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
         <v>22</v>
@@ -3122,7 +3189,7 @@
         <v>23</v>
       </c>
       <c r="AH15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
         <v>11</v>
@@ -3134,58 +3201,58 @@
         <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM15" t="n">
         <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
         <v>5</v>
       </c>
       <c r="AS15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU15" t="n">
         <v>23</v>
       </c>
-      <c r="AT15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>22</v>
-      </c>
       <c r="AV15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
         <v>6</v>
       </c>
       <c r="AZ15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB15" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BC15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" t="n">
         <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>0.833</v>
+        <v>0.826</v>
       </c>
       <c r="H16" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I16" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J16" t="n">
-        <v>82.09999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K16" t="n">
         <v>0.472</v>
@@ -3244,55 +3311,55 @@
         <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O16" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="P16" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.776</v>
+        <v>0.774</v>
       </c>
       <c r="R16" t="n">
         <v>10.2</v>
       </c>
       <c r="S16" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="T16" t="n">
-        <v>42.3</v>
+        <v>42</v>
       </c>
       <c r="U16" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V16" t="n">
         <v>13.1</v>
       </c>
       <c r="W16" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X16" t="n">
         <v>4</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>102.5</v>
+        <v>102.3</v>
       </c>
       <c r="AC16" t="n">
         <v>6.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>2</v>
@@ -3307,13 +3374,13 @@
         <v>6</v>
       </c>
       <c r="AI16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL16" t="n">
         <v>27</v>
@@ -3331,19 +3398,19 @@
         <v>9</v>
       </c>
       <c r="AQ16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR16" t="n">
         <v>22</v>
       </c>
       <c r="AS16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AT16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV16" t="n">
         <v>7</v>
@@ -3352,22 +3419,22 @@
         <v>10</v>
       </c>
       <c r="AX16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AZ16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -3396,94 +3463,94 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" t="n">
         <v>13</v>
       </c>
       <c r="G17" t="n">
-        <v>0.48</v>
+        <v>0.458</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="J17" t="n">
-        <v>74.3</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L17" t="n">
         <v>8</v>
       </c>
       <c r="M17" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="N17" t="n">
         <v>0.363</v>
       </c>
       <c r="O17" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P17" t="n">
         <v>24.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.732</v>
+        <v>0.73</v>
       </c>
       <c r="R17" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="S17" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="T17" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
       <c r="U17" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V17" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="W17" t="n">
         <v>8.6</v>
       </c>
       <c r="X17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="AB17" t="n">
         <v>94.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>-3.8</v>
+        <v>-4.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH17" t="n">
         <v>28</v>
@@ -3495,25 +3562,25 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL17" t="n">
         <v>11</v>
       </c>
-      <c r="AL17" t="n">
-        <v>10</v>
-      </c>
       <c r="AM17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3525,10 +3592,10 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW17" t="n">
         <v>6</v>
@@ -3543,10 +3610,10 @@
         <v>10</v>
       </c>
       <c r="BA17" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BB17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC17" t="n">
         <v>22</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -3668,28 +3735,28 @@
         <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI18" t="n">
         <v>16</v>
       </c>
       <c r="AJ18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP18" t="n">
         <v>20</v>
@@ -3701,13 +3768,13 @@
         <v>17</v>
       </c>
       <c r="AS18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT18" t="n">
         <v>26</v>
       </c>
       <c r="AU18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV18" t="n">
         <v>28</v>
@@ -3719,10 +3786,10 @@
         <v>22</v>
       </c>
       <c r="AY18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -3760,49 +3827,49 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19" t="n">
-        <v>0.208</v>
+        <v>0.217</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J19" t="n">
-        <v>85</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L19" t="n">
         <v>4.4</v>
       </c>
       <c r="M19" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="N19" t="n">
-        <v>0.324</v>
+        <v>0.323</v>
       </c>
       <c r="O19" t="n">
         <v>20.1</v>
       </c>
       <c r="P19" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.729</v>
+        <v>0.737</v>
       </c>
       <c r="R19" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S19" t="n">
         <v>28.8</v>
@@ -3811,55 +3878,55 @@
         <v>41.2</v>
       </c>
       <c r="U19" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="V19" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W19" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X19" t="n">
         <v>4</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>-10.2</v>
+        <v>-10</v>
       </c>
       <c r="AD19" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE19" t="n">
         <v>27</v>
       </c>
       <c r="AF19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG19" t="n">
         <v>27</v>
       </c>
       <c r="AH19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI19" t="n">
         <v>18</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3877,7 +3944,7 @@
         <v>2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AR19" t="n">
         <v>4</v>
@@ -3886,13 +3953,13 @@
         <v>28</v>
       </c>
       <c r="AT19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW19" t="n">
         <v>2</v>
@@ -3901,13 +3968,13 @@
         <v>24</v>
       </c>
       <c r="AY19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ19" t="n">
         <v>17</v>
       </c>
       <c r="BA19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB19" t="n">
         <v>20</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -3957,79 +4024,79 @@
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>39.6</v>
+        <v>39.3</v>
       </c>
       <c r="J20" t="n">
-        <v>84.8</v>
+        <v>85.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.467</v>
+        <v>0.459</v>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="M20" t="n">
         <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>0.351</v>
+        <v>0.341</v>
       </c>
       <c r="O20" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P20" t="n">
-        <v>22.8</v>
+        <v>23.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.752</v>
+        <v>0.73</v>
       </c>
       <c r="R20" t="n">
-        <v>11.2</v>
+        <v>12</v>
       </c>
       <c r="S20" t="n">
-        <v>30.8</v>
+        <v>31.3</v>
       </c>
       <c r="T20" t="n">
-        <v>42</v>
+        <v>43.3</v>
       </c>
       <c r="U20" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V20" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="W20" t="n">
         <v>7.6</v>
       </c>
       <c r="X20" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="AB20" t="n">
-        <v>103.4</v>
+        <v>102.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
@@ -4038,61 +4105,61 @@
         <v>4</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AK20" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM20" t="n">
         <v>21</v>
       </c>
       <c r="AN20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP20" t="n">
         <v>15</v>
       </c>
-      <c r="AO20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>18</v>
-      </c>
       <c r="AQ20" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AR20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AT20" t="n">
         <v>13</v>
       </c>
-      <c r="AS20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>17</v>
-      </c>
       <c r="AU20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AX20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ20" t="n">
         <v>13</v>
       </c>
       <c r="BA20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC20" t="n">
         <v>15</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G21" t="n">
-        <v>0.185</v>
+        <v>0.192</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
@@ -4142,67 +4209,67 @@
         <v>36.3</v>
       </c>
       <c r="J21" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L21" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M21" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.363</v>
+        <v>0.368</v>
       </c>
       <c r="O21" t="n">
-        <v>13.7</v>
+        <v>14</v>
       </c>
       <c r="P21" t="n">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.788</v>
+        <v>0.787</v>
       </c>
       <c r="R21" t="n">
         <v>10.6</v>
       </c>
       <c r="S21" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="T21" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="U21" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V21" t="n">
         <v>15.2</v>
       </c>
       <c r="W21" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X21" t="n">
         <v>3.7</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>93.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6</v>
+        <v>-5.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
         <v>27</v>
@@ -4217,7 +4284,7 @@
         <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ21" t="n">
         <v>26</v>
@@ -4226,13 +4293,13 @@
         <v>19</v>
       </c>
       <c r="AL21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM21" t="n">
         <v>22</v>
       </c>
       <c r="AN21" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4253,28 +4320,28 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
         <v>21</v>
       </c>
       <c r="AX21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY21" t="n">
         <v>1</v>
       </c>
       <c r="AZ21" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BA21" t="n">
         <v>26</v>
       </c>
       <c r="BB21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC21" t="n">
         <v>24</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -4306,34 +4373,34 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" t="n">
         <v>13</v>
       </c>
       <c r="G22" t="n">
-        <v>0.48</v>
+        <v>0.458</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>35.7</v>
+        <v>35.5</v>
       </c>
       <c r="J22" t="n">
-        <v>81.40000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.439</v>
+        <v>0.437</v>
       </c>
       <c r="L22" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M22" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="N22" t="n">
         <v>0.313</v>
@@ -4345,70 +4412,70 @@
         <v>23.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.746</v>
+        <v>0.749</v>
       </c>
       <c r="R22" t="n">
         <v>11.7</v>
       </c>
       <c r="S22" t="n">
-        <v>33.8</v>
+        <v>34</v>
       </c>
       <c r="T22" t="n">
-        <v>45.5</v>
+        <v>45.7</v>
       </c>
       <c r="U22" t="n">
         <v>19.6</v>
       </c>
       <c r="V22" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="W22" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X22" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z22" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="AA22" t="n">
         <v>20.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>95.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI22" t="n">
         <v>26</v>
       </c>
-      <c r="AI22" t="n">
-        <v>24</v>
-      </c>
       <c r="AJ22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK22" t="n">
         <v>22</v>
       </c>
       <c r="AL22" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AM22" t="n">
         <v>13</v>
@@ -4420,22 +4487,22 @@
         <v>17</v>
       </c>
       <c r="AP22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS22" t="n">
         <v>6</v>
       </c>
-      <c r="AS22" t="n">
-        <v>7</v>
-      </c>
       <c r="AT22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV22" t="n">
         <v>25</v>
@@ -4444,10 +4511,10 @@
         <v>23</v>
       </c>
       <c r="AX22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ22" t="n">
         <v>29</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -4488,85 +4555,85 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G23" t="n">
-        <v>0.385</v>
+        <v>0.37</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="J23" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.459</v>
+        <v>0.456</v>
       </c>
       <c r="L23" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>18.5</v>
+        <v>18.2</v>
       </c>
       <c r="N23" t="n">
         <v>0.374</v>
       </c>
       <c r="O23" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="P23" t="n">
         <v>19.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="R23" t="n">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="S23" t="n">
-        <v>32.2</v>
+        <v>32.5</v>
       </c>
       <c r="T23" t="n">
-        <v>40.9</v>
+        <v>41.5</v>
       </c>
       <c r="U23" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="V23" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W23" t="n">
         <v>6.4</v>
       </c>
       <c r="X23" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AA23" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.3</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-4.7</v>
+        <v>-5.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>19</v>
@@ -4587,16 +4654,16 @@
         <v>27</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4605,40 +4672,40 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR23" t="n">
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT23" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AU23" t="n">
         <v>30</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW23" t="n">
         <v>25</v>
       </c>
       <c r="AX23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA23" t="n">
         <v>29</v>
       </c>
-      <c r="AY23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>28</v>
-      </c>
       <c r="BB23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BC23" t="n">
         <v>23</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -4748,31 +4815,31 @@
         <v>-12.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
         <v>30</v>
       </c>
       <c r="AF24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG24" t="n">
         <v>30</v>
       </c>
       <c r="AH24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK24" t="n">
         <v>29</v>
       </c>
       <c r="AL24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM24" t="n">
         <v>9</v>
@@ -4781,10 +4848,10 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4793,13 +4860,13 @@
         <v>11</v>
       </c>
       <c r="AS24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT24" t="n">
         <v>20</v>
       </c>
       <c r="AU24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4811,7 +4878,7 @@
         <v>11</v>
       </c>
       <c r="AY24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ24" t="n">
         <v>23</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -4936,19 +5003,19 @@
         <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
         <v>13</v>
       </c>
       <c r="AI25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK25" t="n">
         <v>20</v>
@@ -4957,10 +5024,10 @@
         <v>3</v>
       </c>
       <c r="AM25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO25" t="n">
         <v>20</v>
@@ -4975,7 +5042,7 @@
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT25" t="n">
         <v>18</v>
@@ -4996,10 +5063,10 @@
         <v>7</v>
       </c>
       <c r="AZ25" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB25" t="n">
         <v>5</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -5115,7 +5182,7 @@
         <v>4</v>
       </c>
       <c r="AE26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF26" t="n">
         <v>4</v>
@@ -5130,7 +5197,7 @@
         <v>7</v>
       </c>
       <c r="AJ26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK26" t="n">
         <v>18</v>
@@ -5142,7 +5209,7 @@
         <v>7</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5154,7 +5221,7 @@
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS26" t="n">
         <v>2</v>
@@ -5163,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV26" t="n">
         <v>9</v>
@@ -5184,7 +5251,7 @@
         <v>27</v>
       </c>
       <c r="BB26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -5216,103 +5283,103 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" t="n">
         <v>11</v>
       </c>
       <c r="F27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27" t="n">
-        <v>0.44</v>
+        <v>0.458</v>
       </c>
       <c r="H27" t="n">
         <v>48.8</v>
       </c>
       <c r="I27" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J27" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L27" t="n">
         <v>4.8</v>
       </c>
       <c r="M27" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="N27" t="n">
-        <v>0.329</v>
+        <v>0.331</v>
       </c>
       <c r="O27" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="P27" t="n">
-        <v>31.6</v>
+        <v>32.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.78</v>
+        <v>0.777</v>
       </c>
       <c r="R27" t="n">
         <v>11.5</v>
       </c>
       <c r="S27" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T27" t="n">
-        <v>45.4</v>
+        <v>45.3</v>
       </c>
       <c r="U27" t="n">
         <v>19.5</v>
       </c>
       <c r="V27" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W27" t="n">
         <v>6</v>
       </c>
       <c r="X27" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AA27" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.6</v>
+        <v>101</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH27" t="n">
         <v>3</v>
       </c>
       <c r="AI27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK27" t="n">
         <v>17</v>
@@ -5324,7 +5391,7 @@
         <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5336,19 +5403,19 @@
         <v>8</v>
       </c>
       <c r="AR27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT27" t="n">
         <v>5</v>
       </c>
       <c r="AU27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW27" t="n">
         <v>27</v>
@@ -5360,13 +5427,13 @@
         <v>30</v>
       </c>
       <c r="AZ27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC27" t="n">
         <v>16</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F28" t="n">
         <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>0.667</v>
+        <v>0.68</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
@@ -5416,52 +5483,52 @@
         <v>37.8</v>
       </c>
       <c r="J28" t="n">
-        <v>81.7</v>
+        <v>81.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.463</v>
+        <v>0.465</v>
       </c>
       <c r="L28" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.367</v>
+        <v>0.374</v>
       </c>
       <c r="O28" t="n">
-        <v>17.8</v>
+        <v>17.6</v>
       </c>
       <c r="P28" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.774</v>
+        <v>0.775</v>
       </c>
       <c r="R28" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="T28" t="n">
-        <v>44.2</v>
+        <v>44</v>
       </c>
       <c r="U28" t="n">
         <v>24</v>
       </c>
       <c r="V28" t="n">
-        <v>14.1</v>
+        <v>14.4</v>
       </c>
       <c r="W28" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="X28" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z28" t="n">
         <v>19.3</v>
@@ -5473,70 +5540,70 @@
         <v>101.3</v>
       </c>
       <c r="AC28" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE28" t="n">
         <v>6</v>
       </c>
-      <c r="AD28" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE28" t="n">
+      <c r="AF28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL28" t="n">
         <v>10</v>
       </c>
-      <c r="AF28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ28" t="n">
+      <c r="AM28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP28" t="n">
         <v>18</v>
       </c>
-      <c r="AK28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>16</v>
-      </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
       </c>
       <c r="AS28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
         <v>13</v>
       </c>
       <c r="AX28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY28" t="n">
         <v>11</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5728,7 @@
         <v>4</v>
       </c>
       <c r="AE29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF29" t="n">
         <v>4</v>
@@ -5670,16 +5737,16 @@
         <v>4</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5688,13 +5755,13 @@
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO29" t="n">
         <v>2</v>
       </c>
       <c r="AP29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
@@ -5703,10 +5770,10 @@
         <v>14</v>
       </c>
       <c r="AS29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT29" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AU29" t="n">
         <v>18</v>
@@ -5715,10 +5782,10 @@
         <v>5</v>
       </c>
       <c r="AW29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY29" t="n">
         <v>17</v>
@@ -5730,7 +5797,7 @@
         <v>2</v>
       </c>
       <c r="BB29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC29" t="n">
         <v>2</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -5762,55 +5829,55 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" t="n">
         <v>6</v>
       </c>
       <c r="F30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G30" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>36.1</v>
+        <v>35.7</v>
       </c>
       <c r="J30" t="n">
-        <v>78.8</v>
+        <v>78.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L30" t="n">
         <v>6.6</v>
       </c>
       <c r="M30" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="N30" t="n">
         <v>0.324</v>
       </c>
       <c r="O30" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P30" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.736</v>
+        <v>0.733</v>
       </c>
       <c r="R30" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="S30" t="n">
-        <v>29.6</v>
+        <v>30</v>
       </c>
       <c r="T30" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U30" t="n">
         <v>20.1</v>
@@ -5825,49 +5892,49 @@
         <v>5.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Z30" t="n">
         <v>18.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>96.2</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-6.1</v>
+        <v>-6</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AE30" t="n">
         <v>25</v>
       </c>
       <c r="AF30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH30" t="n">
         <v>28</v>
       </c>
       <c r="AI30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL30" t="n">
         <v>23</v>
       </c>
       <c r="AM30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN30" t="n">
         <v>26</v>
@@ -5876,16 +5943,16 @@
         <v>14</v>
       </c>
       <c r="AP30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AQ30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS30" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AT30" t="n">
         <v>24</v>
@@ -5897,13 +5964,13 @@
         <v>18</v>
       </c>
       <c r="AW30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY30" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ30" t="n">
         <v>4</v>
@@ -5912,7 +5979,7 @@
         <v>23</v>
       </c>
       <c r="BB30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC30" t="n">
         <v>25</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
@@ -5944,88 +6011,88 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31" t="n">
         <v>6</v>
       </c>
       <c r="G31" t="n">
-        <v>0.75</v>
+        <v>0.739</v>
       </c>
       <c r="H31" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I31" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="J31" t="n">
-        <v>82.90000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.472</v>
+        <v>0.471</v>
       </c>
       <c r="L31" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="M31" t="n">
         <v>16</v>
       </c>
       <c r="N31" t="n">
-        <v>0.397</v>
+        <v>0.389</v>
       </c>
       <c r="O31" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P31" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.739</v>
+        <v>0.74</v>
       </c>
       <c r="R31" t="n">
         <v>10.7</v>
       </c>
       <c r="S31" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="T31" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U31" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="V31" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="W31" t="n">
         <v>8.1</v>
       </c>
       <c r="X31" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y31" t="n">
         <v>4.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA31" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>101</v>
+        <v>100.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AD31" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF31" t="n">
         <v>4</v>
@@ -6043,7 +6110,7 @@
         <v>14</v>
       </c>
       <c r="AK31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
@@ -6061,7 +6128,7 @@
         <v>22</v>
       </c>
       <c r="AQ31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR31" t="n">
         <v>19</v>
@@ -6073,16 +6140,16 @@
         <v>12</v>
       </c>
       <c r="AU31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY31" t="n">
         <v>10</v>
@@ -6091,13 +6158,13 @@
         <v>22</v>
       </c>
       <c r="BA31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BB31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-16-2014-15</t>
+          <t>2014-12-16</t>
         </is>
       </c>
     </row>
